--- a/Inputs/Pacific_Cross_Master_Series/info.xlsx
+++ b/Inputs/Pacific_Cross_Master_Series/info.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">2025-01-1</t>
   </si>
   <si>
-    <t xml:space="preserve">USD</t>
+    <t xml:space="preserve">VND</t>
   </si>
   <si>
     <t xml:space="preserve">Annually/</t>
@@ -81,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,11 +102,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -178,7 +173,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,10 +197,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.19"/>
@@ -249,7 +244,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>25641.025641026</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
